--- a/_data/verbs.xlsx
+++ b/_data/verbs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosug\Dropbox\個人\趣味\言語創作\GitHub\fonel\_data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosug\Dropbox\個人\趣味\言語創作\GitHub\fonel\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB00CC8D-D0D8-495B-91E5-707BE488D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAFA3D5-6F19-4FFE-A878-6C8C6A549801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5160" yWindow="5265" windowWidth="28800" windowHeight="15345" xr2:uid="{ABD00031-DDC4-44AF-9458-A28F9B662B61}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>verb</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>japanese</t>
-  </si>
-  <si>
-    <t>x1_preposition</t>
   </si>
   <si>
     <t>x1_role</t>
@@ -1079,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011DEC45-E866-45A8-842F-6F0198A8BDBC}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1091,19 +1088,18 @@
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1143,24 +1139,24 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
@@ -1169,47 +1165,47 @@
       <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>32</v>
       </c>
       <c r="H4" t="s">
@@ -1217,9 +1213,6 @@
       </c>
       <c r="I4" t="s">
         <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/_data/verbs.xlsx
+++ b/_data/verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosug\Dropbox\個人\趣味\言語創作\GitHub\fonel\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAFA3D5-6F19-4FFE-A878-6C8C6A549801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA9D97F-3DB8-4D4B-896E-4262537023D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="5265" windowWidth="28800" windowHeight="15345" xr2:uid="{ABD00031-DDC4-44AF-9458-A28F9B662B61}"/>
+    <workbookView xWindow="4740" yWindow="765" windowWidth="23520" windowHeight="14385" xr2:uid="{CA0B2A98-8D04-45E0-A992-7FDA41BF8558}"/>
   </bookViews>
   <sheets>
     <sheet name="verbs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>verb</t>
   </si>
@@ -43,22 +43,34 @@
     <t>x2_role</t>
   </si>
   <si>
+    <t>x2_optional</t>
+  </si>
+  <si>
     <t>x3_preposition</t>
   </si>
   <si>
     <t>x3_role</t>
   </si>
   <si>
+    <t>x3_optional</t>
+  </si>
+  <si>
     <t>x4_preposition</t>
   </si>
   <si>
     <t>x4_role</t>
   </si>
   <si>
+    <t>x4_optional</t>
+  </si>
+  <si>
     <t>x5_preposition</t>
   </si>
   <si>
     <t>x5_role</t>
+  </si>
+  <si>
+    <t>x5_optional</t>
   </si>
   <si>
     <t>doné</t>
@@ -1075,11 +1087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011DEC45-E866-45A8-842F-6F0198A8BDBC}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C7FDDB-3BC0-4153-BB44-1E22F683D5D0}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1091,15 +1103,19 @@
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1139,80 +1155,107 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
